--- a/CloudFormation/Curso-Udemy/Fundamentos.xlsx
+++ b/CloudFormation/Curso-Udemy/Fundamentos.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jrperez\Cursos\CloudAws\CloudFormation\Curso-Udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5607B3-EB3C-4BB9-B72D-5EEBECFCFA9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5163C2-FCD7-45F9-83BA-A7FF12E83D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduccion" sheetId="2" r:id="rId1"/>
     <sheet name="Yaml-Json" sheetId="3" r:id="rId2"/>
     <sheet name="Parametros" sheetId="1" r:id="rId3"/>
     <sheet name="Recursos" sheetId="4" r:id="rId4"/>
+    <sheet name="Mappings" sheetId="5" r:id="rId5"/>
+    <sheet name="Outputs" sheetId="6" r:id="rId6"/>
+    <sheet name="Conditions" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -562,6 +565,329 @@
         <a:xfrm>
           <a:off x="0" y="3429000"/>
           <a:ext cx="6942857" cy="2752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>322476</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D64CC65-CEB8-4059-8E7C-55CDEF2604E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10990476" cy="4628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>570476</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>170881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4588632-BE58-4736-B1CE-ED024249F289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5143500"/>
+          <a:ext cx="8190476" cy="4552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>512952</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7860B0BF-1F63-43F8-B825-27B93C920672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11180952" cy="4961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198857</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E7E3F2-1A78-4263-A85F-A1848A1BF3C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5334000"/>
+          <a:ext cx="9342857" cy="4447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>170095</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>94595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEAFD35-927D-440A-A4F8-3D258507AB9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10838095" cy="5238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122571</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3B66B9-B585-4EEF-AF81-69F23A66A2DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5715000"/>
+          <a:ext cx="10028571" cy="4733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>513048</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>104262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B932F86-BA7F-4583-B469-7AC5FFF9CC0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10858500"/>
+          <a:ext cx="10419048" cy="4104762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -838,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5726D62C-F1FB-4C2C-AC1E-103EB1815116}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -900,7 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF06DA42-43A6-4E39-84F1-A15B2F0501AD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -909,4 +1235,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30748268-00B8-4574-A24D-9700B057552E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1CD45A-7F96-44B0-8B49-DD1306ECCE67}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8308E0BC-04D0-4D6C-A024-1FF7DE1D9C84}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>